--- a/Documentation/Технические требования/Приложения/Компановка колонны труб/Программа_бурения_Жагрина.xlsx
+++ b/Documentation/Технические требования/Приложения/Компановка колонны труб/Программа_бурения_Жагрина.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Geofpro\Geofpro_Calculator\Documentation\Компановка колонны труб\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Geofpro\Geofpro_Calculator\Documentation\Технические требования\Приложения\Компановка колонны труб\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB18246-C401-4CEE-8E2D-7A1DAE4B89BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8813C99-6CF9-47C8-9454-E4BB8C5CDCC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="147">
   <si>
     <t>1,5°/10м</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>Индекс сложности</t>
-  </si>
-  <si>
-    <t>Начальник отдела инженерных технологий УИ</t>
   </si>
   <si>
     <t>Рекомендованный режим бурения</t>
@@ -475,12 +472,6 @@
     <t xml:space="preserve">Прямолинейный </t>
   </si>
   <si>
-    <t xml:space="preserve">Руководитель направления по инжинирингу бурения </t>
-  </si>
-  <si>
-    <t>и техническому пределу</t>
-  </si>
-  <si>
     <t>Допустимая пространственная интенсивность в интервале ГНО</t>
   </si>
   <si>
@@ -554,6 +545,12 @@
   </si>
   <si>
     <t xml:space="preserve">Составил ведущий инженер-технолог </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Начальник отдела </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Руководитель </t>
   </si>
 </sst>
 </file>
@@ -2114,18 +2111,354 @@
     <xf numFmtId="2" fontId="50" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="56" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="44" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="57" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="48" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="9" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="48" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="2" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="2" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="2" borderId="49" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="45" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2135,15 +2468,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="5" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2153,15 +2477,6 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2184,324 +2499,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="9" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="48" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="47" fillId="2" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="47" fillId="2" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="47" fillId="2" borderId="49" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="45" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="44" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="57" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="48" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="56" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2865,7 +2862,7 @@
   <dimension ref="A1:S137"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L91" sqref="L91"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2929,14 +2926,14 @@
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="6"/>
@@ -2944,7 +2941,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
       <c r="M2" s="82" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N2" s="83"/>
       <c r="O2" s="83"/>
@@ -2956,9 +2953,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
-        <v>122</v>
-      </c>
+      <c r="F3" s="6"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -3063,7 +3058,7 @@
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -3090,7 +3085,7 @@
       <c r="D10" s="64"/>
       <c r="E10" s="64"/>
       <c r="F10" s="64" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G10" s="64"/>
       <c r="H10" s="33"/>
@@ -3108,13 +3103,13 @@
     <row r="11" spans="1:18" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="199" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="199"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="199"/>
-      <c r="G11" s="199"/>
+      <c r="C11" s="229" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="229"/>
+      <c r="E11" s="229"/>
+      <c r="F11" s="229"/>
+      <c r="G11" s="229"/>
       <c r="H11" s="36"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -3129,11 +3124,11 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="123" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
@@ -3152,17 +3147,17 @@
       <c r="R12" s="55"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="201" t="s">
+      <c r="A13" s="231" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="202"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="202"/>
-      <c r="I13" s="202"/>
+      <c r="B13" s="232"/>
+      <c r="C13" s="232"/>
+      <c r="D13" s="232"/>
+      <c r="E13" s="232"/>
+      <c r="F13" s="232"/>
+      <c r="G13" s="232"/>
+      <c r="H13" s="232"/>
+      <c r="I13" s="232"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
@@ -3174,15 +3169,15 @@
       <c r="R13" s="17"/>
     </row>
     <row r="14" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="201"/>
-      <c r="B14" s="202"/>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
+      <c r="A14" s="231"/>
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="232"/>
+      <c r="E14" s="232"/>
+      <c r="F14" s="232"/>
+      <c r="G14" s="232"/>
+      <c r="H14" s="232"/>
+      <c r="I14" s="232"/>
       <c r="J14" s="30"/>
       <c r="K14" s="30" t="s">
         <v>23</v>
@@ -3208,23 +3203,23 @@
         <v>43920</v>
       </c>
       <c r="I15" s="21"/>
-      <c r="J15" s="218" t="s">
+      <c r="J15" s="250" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="205" t="s">
+      <c r="K15" s="235" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="205" t="s">
+      <c r="L15" s="235" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="211" t="s">
+      <c r="M15" s="241" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="207" t="s">
+      <c r="N15" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="O15" s="207"/>
-      <c r="P15" s="208"/>
+      <c r="O15" s="237"/>
+      <c r="P15" s="238"/>
     </row>
     <row r="16" spans="1:18" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
@@ -3237,16 +3232,16 @@
       <c r="F16" s="67"/>
       <c r="G16" s="67"/>
       <c r="H16" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I16" s="20"/>
-      <c r="J16" s="219"/>
-      <c r="K16" s="220"/>
-      <c r="L16" s="206"/>
-      <c r="M16" s="206"/>
-      <c r="N16" s="209"/>
-      <c r="O16" s="209"/>
-      <c r="P16" s="210"/>
+      <c r="J16" s="251"/>
+      <c r="K16" s="252"/>
+      <c r="L16" s="236"/>
+      <c r="M16" s="236"/>
+      <c r="N16" s="239"/>
+      <c r="O16" s="239"/>
+      <c r="P16" s="240"/>
     </row>
     <row r="17" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
@@ -3259,7 +3254,7 @@
       <c r="F17" s="62"/>
       <c r="G17" s="62"/>
       <c r="H17" s="147" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I17" s="69"/>
       <c r="J17" s="138">
@@ -3274,15 +3269,15 @@
       <c r="M17" s="72">
         <v>60</v>
       </c>
-      <c r="N17" s="203" t="s">
+      <c r="N17" s="233" t="s">
         <v>29</v>
       </c>
-      <c r="O17" s="203"/>
-      <c r="P17" s="204"/>
+      <c r="O17" s="233"/>
+      <c r="P17" s="234"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
@@ -3291,7 +3286,7 @@
       <c r="F18" s="62"/>
       <c r="G18" s="62"/>
       <c r="H18" s="128" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I18" s="69" t="s">
         <v>10</v>
@@ -3310,15 +3305,15 @@
       <c r="M18" s="73">
         <v>120</v>
       </c>
-      <c r="N18" s="180" t="s">
+      <c r="N18" s="242" t="s">
         <v>49</v>
       </c>
-      <c r="O18" s="180"/>
-      <c r="P18" s="181"/>
+      <c r="O18" s="242"/>
+      <c r="P18" s="243"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" s="70"/>
       <c r="C19" s="70"/>
@@ -3327,7 +3322,7 @@
       <c r="F19" s="62"/>
       <c r="G19" s="62"/>
       <c r="H19" s="128" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I19" s="69" t="s">
         <v>10</v>
@@ -3346,11 +3341,11 @@
       <c r="M19" s="72">
         <v>220</v>
       </c>
-      <c r="N19" s="180" t="s">
+      <c r="N19" s="242" t="s">
         <v>30</v>
       </c>
-      <c r="O19" s="180"/>
-      <c r="P19" s="181"/>
+      <c r="O19" s="242"/>
+      <c r="P19" s="243"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
@@ -3382,20 +3377,20 @@
       <c r="M20" s="73">
         <v>305.01</v>
       </c>
-      <c r="N20" s="180" t="s">
+      <c r="N20" s="242" t="s">
         <v>31</v>
       </c>
-      <c r="O20" s="180"/>
-      <c r="P20" s="181"/>
+      <c r="O20" s="242"/>
+      <c r="P20" s="243"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="182" t="s">
+      <c r="A21" s="256" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="182"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="182"/>
+      <c r="B21" s="256"/>
+      <c r="C21" s="256"/>
+      <c r="D21" s="256"/>
+      <c r="E21" s="256"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
       <c r="H21" s="124">
@@ -3418,15 +3413,15 @@
       <c r="M21" s="72">
         <v>415.81</v>
       </c>
-      <c r="N21" s="180" t="s">
+      <c r="N21" s="242" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="180"/>
-      <c r="P21" s="181"/>
+      <c r="O21" s="242"/>
+      <c r="P21" s="243"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -3454,15 +3449,15 @@
       <c r="M22" s="73">
         <v>670.02</v>
       </c>
-      <c r="N22" s="180" t="s">
+      <c r="N22" s="242" t="s">
         <v>32</v>
       </c>
-      <c r="O22" s="180"/>
-      <c r="P22" s="181"/>
+      <c r="O22" s="242"/>
+      <c r="P22" s="243"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -3490,11 +3485,11 @@
       <c r="M23" s="72">
         <v>788.59</v>
       </c>
-      <c r="N23" s="180" t="s">
+      <c r="N23" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="180"/>
-      <c r="P23" s="181"/>
+      <c r="O23" s="242"/>
+      <c r="P23" s="243"/>
     </row>
     <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="110" t="s">
@@ -3526,11 +3521,11 @@
       <c r="M24" s="73">
         <v>847.88</v>
       </c>
-      <c r="N24" s="180" t="s">
+      <c r="N24" s="242" t="s">
         <v>34</v>
       </c>
-      <c r="O24" s="180"/>
-      <c r="P24" s="181"/>
+      <c r="O24" s="242"/>
+      <c r="P24" s="243"/>
     </row>
     <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="110" t="s">
@@ -3562,11 +3557,11 @@
       <c r="M25" s="72">
         <v>955.67</v>
       </c>
-      <c r="N25" s="180" t="s">
-        <v>86</v>
-      </c>
-      <c r="O25" s="180"/>
-      <c r="P25" s="181"/>
+      <c r="N25" s="242" t="s">
+        <v>85</v>
+      </c>
+      <c r="O25" s="242"/>
+      <c r="P25" s="243"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="110" t="s">
@@ -3599,11 +3594,11 @@
       <c r="M26" s="73">
         <v>1074.25</v>
       </c>
-      <c r="N26" s="180" t="s">
-        <v>87</v>
-      </c>
-      <c r="O26" s="180"/>
-      <c r="P26" s="181"/>
+      <c r="N26" s="242" t="s">
+        <v>86</v>
+      </c>
+      <c r="O26" s="242"/>
+      <c r="P26" s="243"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
@@ -3635,11 +3630,11 @@
       <c r="M27" s="72">
         <v>1128.1400000000001</v>
       </c>
-      <c r="N27" s="180" t="s">
+      <c r="N27" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="O27" s="180"/>
-      <c r="P27" s="181"/>
+      <c r="O27" s="242"/>
+      <c r="P27" s="243"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="110" t="s">
@@ -3671,15 +3666,15 @@
       <c r="M28" s="73">
         <v>1429.96</v>
       </c>
-      <c r="N28" s="180" t="s">
+      <c r="N28" s="242" t="s">
         <v>51</v>
       </c>
-      <c r="O28" s="180"/>
-      <c r="P28" s="181"/>
+      <c r="O28" s="242"/>
+      <c r="P28" s="243"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="110" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="110"/>
       <c r="C29" s="110"/>
@@ -3707,11 +3702,11 @@
       <c r="M29" s="72">
         <v>1559.31</v>
       </c>
-      <c r="N29" s="180" t="s">
+      <c r="N29" s="242" t="s">
         <v>52</v>
       </c>
-      <c r="O29" s="180"/>
-      <c r="P29" s="181"/>
+      <c r="O29" s="242"/>
+      <c r="P29" s="243"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
@@ -3726,7 +3721,7 @@
         <v>20</v>
       </c>
       <c r="H30" s="126" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I30" s="94"/>
       <c r="J30" s="139">
@@ -3743,11 +3738,11 @@
       <c r="M30" s="73">
         <v>1731.78</v>
       </c>
-      <c r="N30" s="180" t="s">
+      <c r="N30" s="242" t="s">
         <v>53</v>
       </c>
-      <c r="O30" s="180"/>
-      <c r="P30" s="181"/>
+      <c r="O30" s="242"/>
+      <c r="P30" s="243"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
@@ -3762,7 +3757,7 @@
         <v>22</v>
       </c>
       <c r="H31" s="126" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I31" s="94"/>
       <c r="J31" s="139">
@@ -3779,11 +3774,11 @@
       <c r="M31" s="72">
         <v>1961.76</v>
       </c>
-      <c r="N31" s="180" t="s">
+      <c r="N31" s="242" t="s">
         <v>54</v>
       </c>
-      <c r="O31" s="180"/>
-      <c r="P31" s="181"/>
+      <c r="O31" s="242"/>
+      <c r="P31" s="243"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
@@ -3812,15 +3807,15 @@
       <c r="M32" s="73">
         <v>2141</v>
       </c>
-      <c r="N32" s="180" t="s">
+      <c r="N32" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="O32" s="180"/>
-      <c r="P32" s="181"/>
+      <c r="O32" s="242"/>
+      <c r="P32" s="243"/>
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -3844,15 +3839,15 @@
       <c r="M33" s="112">
         <v>2736.68</v>
       </c>
-      <c r="N33" s="212" t="s">
-        <v>104</v>
-      </c>
-      <c r="O33" s="212"/>
-      <c r="P33" s="213"/>
+      <c r="N33" s="244" t="s">
+        <v>103</v>
+      </c>
+      <c r="O33" s="244"/>
+      <c r="P33" s="245"/>
     </row>
     <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
@@ -3861,14 +3856,14 @@
       <c r="F34" s="41"/>
       <c r="G34" s="41"/>
       <c r="H34" s="127" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J34" s="140">
         <f t="shared" si="0"/>
         <v>2625</v>
       </c>
       <c r="K34" s="113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L34" s="114">
         <f t="shared" si="1"/>
@@ -3877,11 +3872,11 @@
       <c r="M34" s="113">
         <v>2766.69</v>
       </c>
-      <c r="N34" s="184" t="s">
-        <v>107</v>
-      </c>
-      <c r="O34" s="185"/>
-      <c r="P34" s="186"/>
+      <c r="N34" s="258" t="s">
+        <v>106</v>
+      </c>
+      <c r="O34" s="259"/>
+      <c r="P34" s="260"/>
     </row>
     <row r="35" spans="1:18" s="22" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
@@ -3911,11 +3906,11 @@
       <c r="M35" s="144">
         <v>2840.93</v>
       </c>
-      <c r="N35" s="187" t="s">
-        <v>108</v>
-      </c>
-      <c r="O35" s="188"/>
-      <c r="P35" s="189"/>
+      <c r="N35" s="261" t="s">
+        <v>107</v>
+      </c>
+      <c r="O35" s="262"/>
+      <c r="P35" s="263"/>
     </row>
     <row r="36" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
@@ -3930,9 +3925,9 @@
       <c r="K36" s="115"/>
       <c r="L36" s="116"/>
       <c r="M36" s="115"/>
-      <c r="N36" s="190"/>
-      <c r="O36" s="190"/>
-      <c r="P36" s="190"/>
+      <c r="N36" s="264"/>
+      <c r="O36" s="264"/>
+      <c r="P36" s="264"/>
       <c r="R36" s="12"/>
     </row>
     <row r="37" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3948,27 +3943,27 @@
       <c r="K37" s="115"/>
       <c r="L37" s="116"/>
       <c r="M37" s="115"/>
-      <c r="N37" s="190"/>
-      <c r="O37" s="190"/>
-      <c r="P37" s="190"/>
+      <c r="N37" s="264"/>
+      <c r="O37" s="264"/>
+      <c r="P37" s="264"/>
       <c r="R37" s="12"/>
     </row>
     <row r="38" spans="1:18" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="183" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="183"/>
-      <c r="C38" s="183"/>
-      <c r="D38" s="183"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="183"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="183"/>
-      <c r="J38" s="183"/>
-      <c r="K38" s="183"/>
-      <c r="L38" s="183"/>
-      <c r="M38" s="183"/>
+      <c r="A38" s="257" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="257"/>
+      <c r="C38" s="257"/>
+      <c r="D38" s="257"/>
+      <c r="E38" s="257"/>
+      <c r="F38" s="257"/>
+      <c r="G38" s="257"/>
+      <c r="H38" s="257"/>
+      <c r="I38" s="257"/>
+      <c r="J38" s="257"/>
+      <c r="K38" s="257"/>
+      <c r="L38" s="257"/>
+      <c r="M38" s="257"/>
       <c r="N38" s="60"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
@@ -3977,43 +3972,43 @@
     </row>
     <row r="39" spans="1:18" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="92" t="s">
+      <c r="F39" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="K39" s="265" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="H39" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="I39" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="J39" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="K39" s="191" t="s">
-        <v>64</v>
-      </c>
-      <c r="L39" s="191"/>
-      <c r="M39" s="191"/>
-      <c r="N39" s="191"/>
-      <c r="O39" s="191"/>
-      <c r="P39" s="192"/>
+      <c r="L39" s="265"/>
+      <c r="M39" s="265"/>
+      <c r="N39" s="265"/>
+      <c r="O39" s="265"/>
+      <c r="P39" s="266"/>
       <c r="R39" s="12"/>
     </row>
     <row r="40" spans="1:18" s="24" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4047,12 +4042,12 @@
       <c r="J40" s="118">
         <v>0</v>
       </c>
-      <c r="K40" s="193"/>
-      <c r="L40" s="193"/>
-      <c r="M40" s="193"/>
-      <c r="N40" s="193"/>
-      <c r="O40" s="193"/>
-      <c r="P40" s="194"/>
+      <c r="K40" s="267"/>
+      <c r="L40" s="267"/>
+      <c r="M40" s="267"/>
+      <c r="N40" s="267"/>
+      <c r="O40" s="267"/>
+      <c r="P40" s="268"/>
     </row>
     <row r="41" spans="1:18" s="24" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="130">
@@ -4085,14 +4080,14 @@
       <c r="J41" s="131">
         <v>0</v>
       </c>
-      <c r="K41" s="167" t="s">
-        <v>105</v>
-      </c>
-      <c r="L41" s="168"/>
-      <c r="M41" s="168"/>
-      <c r="N41" s="168"/>
-      <c r="O41" s="168"/>
-      <c r="P41" s="169"/>
+      <c r="K41" s="222" t="s">
+        <v>104</v>
+      </c>
+      <c r="L41" s="223"/>
+      <c r="M41" s="223"/>
+      <c r="N41" s="223"/>
+      <c r="O41" s="223"/>
+      <c r="P41" s="224"/>
     </row>
     <row r="42" spans="1:18" s="24" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="119">
@@ -4125,12 +4120,12 @@
       <c r="J42" s="120">
         <v>0</v>
       </c>
-      <c r="K42" s="161"/>
-      <c r="L42" s="162"/>
-      <c r="M42" s="162"/>
-      <c r="N42" s="162"/>
-      <c r="O42" s="162"/>
-      <c r="P42" s="163"/>
+      <c r="K42" s="253"/>
+      <c r="L42" s="254"/>
+      <c r="M42" s="254"/>
+      <c r="N42" s="254"/>
+      <c r="O42" s="254"/>
+      <c r="P42" s="255"/>
     </row>
     <row r="43" spans="1:18" s="24" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="119">
@@ -4163,12 +4158,12 @@
       <c r="J43" s="120">
         <v>0.8</v>
       </c>
-      <c r="K43" s="161"/>
-      <c r="L43" s="162"/>
-      <c r="M43" s="162"/>
-      <c r="N43" s="162"/>
-      <c r="O43" s="162"/>
-      <c r="P43" s="163"/>
+      <c r="K43" s="253"/>
+      <c r="L43" s="254"/>
+      <c r="M43" s="254"/>
+      <c r="N43" s="254"/>
+      <c r="O43" s="254"/>
+      <c r="P43" s="255"/>
     </row>
     <row r="44" spans="1:18" s="24" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="148">
@@ -4201,14 +4196,14 @@
       <c r="J44" s="149">
         <v>0</v>
       </c>
-      <c r="K44" s="167" t="s">
-        <v>106</v>
-      </c>
-      <c r="L44" s="168"/>
-      <c r="M44" s="168"/>
-      <c r="N44" s="168"/>
-      <c r="O44" s="168"/>
-      <c r="P44" s="169"/>
+      <c r="K44" s="222" t="s">
+        <v>105</v>
+      </c>
+      <c r="L44" s="223"/>
+      <c r="M44" s="223"/>
+      <c r="N44" s="223"/>
+      <c r="O44" s="223"/>
+      <c r="P44" s="224"/>
     </row>
     <row r="45" spans="1:18" s="24" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="121">
@@ -4241,12 +4236,12 @@
       <c r="J45" s="122">
         <v>0</v>
       </c>
-      <c r="K45" s="161"/>
-      <c r="L45" s="162"/>
-      <c r="M45" s="162"/>
-      <c r="N45" s="162"/>
-      <c r="O45" s="162"/>
-      <c r="P45" s="163"/>
+      <c r="K45" s="253"/>
+      <c r="L45" s="254"/>
+      <c r="M45" s="254"/>
+      <c r="N45" s="254"/>
+      <c r="O45" s="254"/>
+      <c r="P45" s="255"/>
     </row>
     <row r="46" spans="1:18" s="24" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="121">
@@ -4279,12 +4274,12 @@
       <c r="J46" s="122">
         <v>0.5</v>
       </c>
-      <c r="K46" s="161"/>
-      <c r="L46" s="162"/>
-      <c r="M46" s="162"/>
-      <c r="N46" s="162"/>
-      <c r="O46" s="162"/>
-      <c r="P46" s="163"/>
+      <c r="K46" s="253"/>
+      <c r="L46" s="254"/>
+      <c r="M46" s="254"/>
+      <c r="N46" s="254"/>
+      <c r="O46" s="254"/>
+      <c r="P46" s="255"/>
     </row>
     <row r="47" spans="1:18" s="24" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="136">
@@ -4317,14 +4312,14 @@
       <c r="J47" s="137">
         <v>0</v>
       </c>
-      <c r="K47" s="167" t="s">
-        <v>125</v>
-      </c>
-      <c r="L47" s="168"/>
-      <c r="M47" s="168"/>
-      <c r="N47" s="168"/>
-      <c r="O47" s="168"/>
-      <c r="P47" s="169"/>
+      <c r="K47" s="222" t="s">
+        <v>122</v>
+      </c>
+      <c r="L47" s="223"/>
+      <c r="M47" s="223"/>
+      <c r="N47" s="223"/>
+      <c r="O47" s="223"/>
+      <c r="P47" s="224"/>
     </row>
     <row r="48" spans="1:18" s="24" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="150">
@@ -4357,14 +4352,14 @@
       <c r="J48" s="151">
         <v>0</v>
       </c>
-      <c r="K48" s="167" t="s">
-        <v>133</v>
-      </c>
-      <c r="L48" s="168"/>
-      <c r="M48" s="168"/>
-      <c r="N48" s="168"/>
-      <c r="O48" s="168"/>
-      <c r="P48" s="169"/>
+      <c r="K48" s="222" t="s">
+        <v>130</v>
+      </c>
+      <c r="L48" s="223"/>
+      <c r="M48" s="223"/>
+      <c r="N48" s="223"/>
+      <c r="O48" s="223"/>
+      <c r="P48" s="224"/>
     </row>
     <row r="49" spans="1:18" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="150">
@@ -4397,14 +4392,14 @@
       <c r="J49" s="151">
         <v>0</v>
       </c>
-      <c r="K49" s="167" t="s">
-        <v>126</v>
-      </c>
-      <c r="L49" s="168"/>
-      <c r="M49" s="168"/>
-      <c r="N49" s="168"/>
-      <c r="O49" s="168"/>
-      <c r="P49" s="169"/>
+      <c r="K49" s="222" t="s">
+        <v>123</v>
+      </c>
+      <c r="L49" s="223"/>
+      <c r="M49" s="223"/>
+      <c r="N49" s="223"/>
+      <c r="O49" s="223"/>
+      <c r="P49" s="224"/>
     </row>
     <row r="50" spans="1:18" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="130">
@@ -4437,14 +4432,14 @@
       <c r="J50" s="131">
         <v>0</v>
       </c>
-      <c r="K50" s="167" t="s">
-        <v>127</v>
-      </c>
-      <c r="L50" s="168"/>
-      <c r="M50" s="168"/>
-      <c r="N50" s="168"/>
-      <c r="O50" s="168"/>
-      <c r="P50" s="169"/>
+      <c r="K50" s="222" t="s">
+        <v>124</v>
+      </c>
+      <c r="L50" s="223"/>
+      <c r="M50" s="223"/>
+      <c r="N50" s="223"/>
+      <c r="O50" s="223"/>
+      <c r="P50" s="224"/>
     </row>
     <row r="51" spans="1:18" s="24" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="136">
@@ -4477,14 +4472,14 @@
       <c r="J51" s="137">
         <v>0</v>
       </c>
-      <c r="K51" s="167" t="s">
-        <v>128</v>
-      </c>
-      <c r="L51" s="168"/>
-      <c r="M51" s="168"/>
-      <c r="N51" s="168"/>
-      <c r="O51" s="168"/>
-      <c r="P51" s="169"/>
+      <c r="K51" s="222" t="s">
+        <v>125</v>
+      </c>
+      <c r="L51" s="223"/>
+      <c r="M51" s="223"/>
+      <c r="N51" s="223"/>
+      <c r="O51" s="223"/>
+      <c r="P51" s="224"/>
     </row>
     <row r="52" spans="1:18" s="24" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="150">
@@ -4517,14 +4512,14 @@
       <c r="J52" s="151">
         <v>0</v>
       </c>
-      <c r="K52" s="167" t="s">
-        <v>129</v>
-      </c>
-      <c r="L52" s="168"/>
-      <c r="M52" s="168"/>
-      <c r="N52" s="168"/>
-      <c r="O52" s="168"/>
-      <c r="P52" s="169"/>
+      <c r="K52" s="222" t="s">
+        <v>126</v>
+      </c>
+      <c r="L52" s="223"/>
+      <c r="M52" s="223"/>
+      <c r="N52" s="223"/>
+      <c r="O52" s="223"/>
+      <c r="P52" s="224"/>
     </row>
     <row r="53" spans="1:18" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="150">
@@ -4557,14 +4552,14 @@
       <c r="J53" s="151">
         <v>0</v>
       </c>
-      <c r="K53" s="167" t="s">
-        <v>130</v>
-      </c>
-      <c r="L53" s="168"/>
-      <c r="M53" s="168"/>
-      <c r="N53" s="168"/>
-      <c r="O53" s="168"/>
-      <c r="P53" s="169"/>
+      <c r="K53" s="222" t="s">
+        <v>127</v>
+      </c>
+      <c r="L53" s="223"/>
+      <c r="M53" s="223"/>
+      <c r="N53" s="223"/>
+      <c r="O53" s="223"/>
+      <c r="P53" s="224"/>
     </row>
     <row r="54" spans="1:18" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="130">
@@ -4597,14 +4592,14 @@
       <c r="J54" s="131">
         <v>0</v>
       </c>
-      <c r="K54" s="167" t="s">
-        <v>134</v>
-      </c>
-      <c r="L54" s="168"/>
-      <c r="M54" s="168"/>
-      <c r="N54" s="168"/>
-      <c r="O54" s="168"/>
-      <c r="P54" s="169"/>
+      <c r="K54" s="222" t="s">
+        <v>131</v>
+      </c>
+      <c r="L54" s="223"/>
+      <c r="M54" s="223"/>
+      <c r="N54" s="223"/>
+      <c r="O54" s="223"/>
+      <c r="P54" s="224"/>
     </row>
     <row r="55" spans="1:18" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="130">
@@ -4637,14 +4632,14 @@
       <c r="J55" s="131">
         <v>0</v>
       </c>
-      <c r="K55" s="167" t="s">
-        <v>135</v>
-      </c>
-      <c r="L55" s="168"/>
-      <c r="M55" s="168"/>
-      <c r="N55" s="168"/>
-      <c r="O55" s="168"/>
-      <c r="P55" s="169"/>
+      <c r="K55" s="222" t="s">
+        <v>132</v>
+      </c>
+      <c r="L55" s="223"/>
+      <c r="M55" s="223"/>
+      <c r="N55" s="223"/>
+      <c r="O55" s="223"/>
+      <c r="P55" s="224"/>
     </row>
     <row r="56" spans="1:18" s="24" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="152">
@@ -4677,14 +4672,14 @@
       <c r="J56" s="153">
         <v>0.02</v>
       </c>
-      <c r="K56" s="170" t="s">
-        <v>115</v>
-      </c>
-      <c r="L56" s="171"/>
-      <c r="M56" s="171"/>
-      <c r="N56" s="171"/>
-      <c r="O56" s="171"/>
-      <c r="P56" s="172"/>
+      <c r="K56" s="276" t="s">
+        <v>114</v>
+      </c>
+      <c r="L56" s="277"/>
+      <c r="M56" s="277"/>
+      <c r="N56" s="277"/>
+      <c r="O56" s="277"/>
+      <c r="P56" s="278"/>
     </row>
     <row r="57" spans="1:18" s="24" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="101">
@@ -4717,12 +4712,12 @@
       <c r="J57" s="102">
         <v>0.31</v>
       </c>
-      <c r="K57" s="164"/>
-      <c r="L57" s="165"/>
-      <c r="M57" s="165"/>
-      <c r="N57" s="165"/>
-      <c r="O57" s="165"/>
-      <c r="P57" s="166"/>
+      <c r="K57" s="273"/>
+      <c r="L57" s="274"/>
+      <c r="M57" s="274"/>
+      <c r="N57" s="274"/>
+      <c r="O57" s="274"/>
+      <c r="P57" s="275"/>
     </row>
     <row r="58" spans="1:18" s="24" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="101"/>
@@ -4735,12 +4730,12 @@
       <c r="H58" s="102"/>
       <c r="I58" s="102"/>
       <c r="J58" s="102"/>
-      <c r="K58" s="164"/>
-      <c r="L58" s="165"/>
-      <c r="M58" s="165"/>
-      <c r="N58" s="165"/>
-      <c r="O58" s="165"/>
-      <c r="P58" s="166"/>
+      <c r="K58" s="273"/>
+      <c r="L58" s="274"/>
+      <c r="M58" s="274"/>
+      <c r="N58" s="274"/>
+      <c r="O58" s="274"/>
+      <c r="P58" s="275"/>
     </row>
     <row r="59" spans="1:18" s="24" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="103"/>
@@ -4753,12 +4748,12 @@
       <c r="H59" s="104"/>
       <c r="I59" s="104"/>
       <c r="J59" s="104"/>
-      <c r="K59" s="173"/>
-      <c r="L59" s="174"/>
-      <c r="M59" s="174"/>
-      <c r="N59" s="174"/>
-      <c r="O59" s="174"/>
-      <c r="P59" s="175"/>
+      <c r="K59" s="279"/>
+      <c r="L59" s="280"/>
+      <c r="M59" s="280"/>
+      <c r="N59" s="280"/>
+      <c r="O59" s="280"/>
+      <c r="P59" s="281"/>
     </row>
     <row r="60" spans="1:18" s="24" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="95"/>
@@ -4771,12 +4766,12 @@
       <c r="H60" s="96"/>
       <c r="I60" s="96"/>
       <c r="J60" s="96"/>
-      <c r="K60" s="176"/>
-      <c r="L60" s="176"/>
-      <c r="M60" s="176"/>
-      <c r="N60" s="176"/>
-      <c r="O60" s="176"/>
-      <c r="P60" s="177"/>
+      <c r="K60" s="282"/>
+      <c r="L60" s="282"/>
+      <c r="M60" s="282"/>
+      <c r="N60" s="282"/>
+      <c r="O60" s="282"/>
+      <c r="P60" s="283"/>
     </row>
     <row r="61" spans="1:18" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="56"/>
@@ -4799,24 +4794,24 @@
       <c r="R61" s="57"/>
     </row>
     <row r="62" spans="1:18" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="217" t="s">
+      <c r="A62" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="B62" s="217"/>
-      <c r="C62" s="217"/>
-      <c r="D62" s="217"/>
-      <c r="E62" s="217"/>
-      <c r="F62" s="217"/>
-      <c r="G62" s="217"/>
-      <c r="H62" s="217"/>
-      <c r="I62" s="217"/>
-      <c r="J62" s="217"/>
-      <c r="K62" s="217"/>
-      <c r="L62" s="217"/>
-      <c r="M62" s="217"/>
-      <c r="N62" s="217"/>
-      <c r="O62" s="217"/>
-      <c r="P62" s="217"/>
+      <c r="B62" s="249"/>
+      <c r="C62" s="249"/>
+      <c r="D62" s="249"/>
+      <c r="E62" s="249"/>
+      <c r="F62" s="249"/>
+      <c r="G62" s="249"/>
+      <c r="H62" s="249"/>
+      <c r="I62" s="249"/>
+      <c r="J62" s="249"/>
+      <c r="K62" s="249"/>
+      <c r="L62" s="249"/>
+      <c r="M62" s="249"/>
+      <c r="N62" s="249"/>
+      <c r="O62" s="249"/>
+      <c r="P62" s="249"/>
       <c r="Q62" s="61"/>
       <c r="R62" s="61"/>
     </row>
@@ -4841,133 +4836,133 @@
       <c r="R63" s="26"/>
     </row>
     <row r="64" spans="1:18" s="24" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="214" t="s">
+      <c r="A64" s="246" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="215"/>
-      <c r="C64" s="197" t="s">
-        <v>73</v>
-      </c>
-      <c r="D64" s="200"/>
-      <c r="E64" s="197" t="s">
+      <c r="B64" s="247"/>
+      <c r="C64" s="227" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="230"/>
+      <c r="E64" s="227" t="s">
         <v>39</v>
       </c>
-      <c r="F64" s="200"/>
-      <c r="G64" s="198"/>
-      <c r="H64" s="195" t="s">
+      <c r="F64" s="230"/>
+      <c r="G64" s="228"/>
+      <c r="H64" s="225" t="s">
         <v>40</v>
       </c>
-      <c r="I64" s="196"/>
-      <c r="J64" s="197" t="s">
+      <c r="I64" s="226"/>
+      <c r="J64" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="K64" s="198"/>
-      <c r="L64" s="197" t="s">
+      <c r="K64" s="228"/>
+      <c r="L64" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="M64" s="198"/>
-      <c r="N64" s="197" t="s">
+      <c r="M64" s="228"/>
+      <c r="N64" s="227" t="s">
         <v>43</v>
       </c>
-      <c r="O64" s="200"/>
-      <c r="P64" s="216"/>
+      <c r="O64" s="230"/>
+      <c r="P64" s="248"/>
     </row>
     <row r="65" spans="1:18" s="24" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="284" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B65" s="285"/>
-      <c r="C65" s="178" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" s="269"/>
-      <c r="E65" s="178">
+      <c r="C65" s="154" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="156"/>
+      <c r="E65" s="154">
         <v>250</v>
       </c>
-      <c r="F65" s="269"/>
-      <c r="G65" s="179"/>
-      <c r="H65" s="273">
+      <c r="F65" s="156"/>
+      <c r="G65" s="155"/>
+      <c r="H65" s="166">
         <v>9.2200000000000006</v>
       </c>
-      <c r="I65" s="274"/>
-      <c r="J65" s="178">
+      <c r="I65" s="167"/>
+      <c r="J65" s="154">
         <v>6.57</v>
       </c>
-      <c r="K65" s="179"/>
-      <c r="L65" s="178">
+      <c r="K65" s="155"/>
+      <c r="L65" s="154">
         <v>3.5</v>
       </c>
-      <c r="M65" s="179"/>
-      <c r="N65" s="178" t="s">
-        <v>70</v>
-      </c>
-      <c r="O65" s="269"/>
-      <c r="P65" s="270"/>
+      <c r="M65" s="155"/>
+      <c r="N65" s="154" t="s">
+        <v>69</v>
+      </c>
+      <c r="O65" s="156"/>
+      <c r="P65" s="157"/>
     </row>
     <row r="66" spans="1:18" s="24" customFormat="1" ht="19.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="159" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" s="160"/>
-      <c r="C66" s="178" t="s">
+      <c r="A66" s="271" t="s">
         <v>93</v>
       </c>
-      <c r="D66" s="179"/>
-      <c r="E66" s="178">
+      <c r="B66" s="272"/>
+      <c r="C66" s="154" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="155"/>
+      <c r="E66" s="154">
         <v>2240</v>
       </c>
-      <c r="F66" s="269"/>
-      <c r="G66" s="179"/>
-      <c r="H66" s="273">
+      <c r="F66" s="156"/>
+      <c r="G66" s="155"/>
+      <c r="H66" s="166">
         <v>39.409999999999997</v>
       </c>
-      <c r="I66" s="274"/>
-      <c r="J66" s="178">
+      <c r="I66" s="167"/>
+      <c r="J66" s="154">
         <v>4.97</v>
       </c>
-      <c r="K66" s="179"/>
-      <c r="L66" s="178">
+      <c r="K66" s="155"/>
+      <c r="L66" s="154">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M66" s="179"/>
-      <c r="N66" s="178" t="s">
-        <v>70</v>
-      </c>
-      <c r="O66" s="269"/>
-      <c r="P66" s="270"/>
+      <c r="M66" s="155"/>
+      <c r="N66" s="154" t="s">
+        <v>69</v>
+      </c>
+      <c r="O66" s="156"/>
+      <c r="P66" s="157"/>
     </row>
     <row r="67" spans="1:18" s="24" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="279"/>
-      <c r="B67" s="280"/>
-      <c r="C67" s="275"/>
-      <c r="D67" s="276"/>
-      <c r="E67" s="275"/>
-      <c r="F67" s="283"/>
-      <c r="G67" s="276"/>
-      <c r="H67" s="277"/>
-      <c r="I67" s="278"/>
-      <c r="J67" s="275"/>
-      <c r="K67" s="276"/>
-      <c r="L67" s="275"/>
-      <c r="M67" s="276"/>
+      <c r="A67" s="172"/>
+      <c r="B67" s="173"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="169"/>
+      <c r="E67" s="168"/>
+      <c r="F67" s="176"/>
+      <c r="G67" s="169"/>
+      <c r="H67" s="170"/>
+      <c r="I67" s="171"/>
+      <c r="J67" s="168"/>
+      <c r="K67" s="169"/>
+      <c r="L67" s="168"/>
+      <c r="M67" s="169"/>
       <c r="N67" s="105"/>
       <c r="O67" s="105"/>
       <c r="P67" s="106"/>
     </row>
     <row r="68" spans="1:18" s="24" customFormat="1" ht="19.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="281"/>
-      <c r="B68" s="282"/>
-      <c r="C68" s="154"/>
-      <c r="D68" s="156"/>
-      <c r="E68" s="154"/>
-      <c r="F68" s="155"/>
-      <c r="G68" s="156"/>
-      <c r="H68" s="271"/>
-      <c r="I68" s="272"/>
-      <c r="J68" s="154"/>
-      <c r="K68" s="156"/>
-      <c r="L68" s="154"/>
-      <c r="M68" s="156"/>
+      <c r="A68" s="174"/>
+      <c r="B68" s="175"/>
+      <c r="C68" s="164"/>
+      <c r="D68" s="165"/>
+      <c r="E68" s="164"/>
+      <c r="F68" s="269"/>
+      <c r="G68" s="165"/>
+      <c r="H68" s="162"/>
+      <c r="I68" s="163"/>
+      <c r="J68" s="164"/>
+      <c r="K68" s="165"/>
+      <c r="L68" s="164"/>
+      <c r="M68" s="165"/>
       <c r="N68" s="107"/>
       <c r="O68" s="107"/>
       <c r="P68" s="108"/>
@@ -4993,202 +4988,202 @@
       <c r="R69" s="47"/>
     </row>
     <row r="70" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="157" t="s">
+      <c r="A70" s="161" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="161"/>
+      <c r="C70" s="161"/>
+      <c r="D70" s="161"/>
+      <c r="E70" s="161"/>
+      <c r="F70" s="161"/>
+      <c r="G70" s="161"/>
+      <c r="H70" s="161"/>
+      <c r="I70" s="161"/>
+      <c r="J70" s="161"/>
+      <c r="K70" s="161"/>
+      <c r="L70" s="161"/>
+      <c r="M70" s="161"/>
+      <c r="N70" s="161"/>
+      <c r="O70" s="161"/>
+      <c r="P70" s="161"/>
+      <c r="Q70" s="161"/>
+      <c r="R70" s="161"/>
+    </row>
+    <row r="71" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="157"/>
-      <c r="C70" s="157"/>
-      <c r="D70" s="157"/>
-      <c r="E70" s="157"/>
-      <c r="F70" s="157"/>
-      <c r="G70" s="157"/>
-      <c r="H70" s="157"/>
-      <c r="I70" s="157"/>
-      <c r="J70" s="157"/>
-      <c r="K70" s="157"/>
-      <c r="L70" s="157"/>
-      <c r="M70" s="157"/>
-      <c r="N70" s="157"/>
-      <c r="O70" s="157"/>
-      <c r="P70" s="157"/>
-      <c r="Q70" s="157"/>
-      <c r="R70" s="157"/>
-    </row>
-    <row r="71" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="157" t="s">
+      <c r="B71" s="161"/>
+      <c r="C71" s="161"/>
+      <c r="D71" s="161"/>
+      <c r="E71" s="161"/>
+      <c r="F71" s="161"/>
+      <c r="G71" s="161"/>
+      <c r="H71" s="161"/>
+      <c r="I71" s="161"/>
+      <c r="J71" s="161"/>
+      <c r="K71" s="161"/>
+      <c r="L71" s="161"/>
+      <c r="M71" s="161"/>
+      <c r="N71" s="161"/>
+      <c r="O71" s="161"/>
+      <c r="P71" s="161"/>
+      <c r="Q71" s="161"/>
+      <c r="R71" s="161"/>
+    </row>
+    <row r="72" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="161" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="157"/>
-      <c r="C71" s="157"/>
-      <c r="D71" s="157"/>
-      <c r="E71" s="157"/>
-      <c r="F71" s="157"/>
-      <c r="G71" s="157"/>
-      <c r="H71" s="157"/>
-      <c r="I71" s="157"/>
-      <c r="J71" s="157"/>
-      <c r="K71" s="157"/>
-      <c r="L71" s="157"/>
-      <c r="M71" s="157"/>
-      <c r="N71" s="157"/>
-      <c r="O71" s="157"/>
-      <c r="P71" s="157"/>
-      <c r="Q71" s="157"/>
-      <c r="R71" s="157"/>
-    </row>
-    <row r="72" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="157" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="157"/>
-      <c r="C72" s="157"/>
-      <c r="D72" s="157"/>
-      <c r="E72" s="157"/>
-      <c r="F72" s="157"/>
-      <c r="G72" s="157"/>
-      <c r="H72" s="157"/>
-      <c r="I72" s="157"/>
-      <c r="J72" s="157"/>
-      <c r="K72" s="157"/>
-      <c r="L72" s="157"/>
-      <c r="M72" s="157"/>
-      <c r="N72" s="157"/>
-      <c r="O72" s="157"/>
-      <c r="P72" s="157"/>
-      <c r="Q72" s="157"/>
-      <c r="R72" s="157"/>
+      <c r="B72" s="161"/>
+      <c r="C72" s="161"/>
+      <c r="D72" s="161"/>
+      <c r="E72" s="161"/>
+      <c r="F72" s="161"/>
+      <c r="G72" s="161"/>
+      <c r="H72" s="161"/>
+      <c r="I72" s="161"/>
+      <c r="J72" s="161"/>
+      <c r="K72" s="161"/>
+      <c r="L72" s="161"/>
+      <c r="M72" s="161"/>
+      <c r="N72" s="161"/>
+      <c r="O72" s="161"/>
+      <c r="P72" s="161"/>
+      <c r="Q72" s="161"/>
+      <c r="R72" s="161"/>
     </row>
     <row r="73" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="157" t="s">
-        <v>100</v>
-      </c>
-      <c r="B73" s="157"/>
-      <c r="C73" s="157"/>
-      <c r="D73" s="157"/>
-      <c r="E73" s="157"/>
-      <c r="F73" s="157"/>
-      <c r="G73" s="157"/>
-      <c r="H73" s="157"/>
-      <c r="I73" s="157"/>
-      <c r="J73" s="157"/>
-      <c r="K73" s="157"/>
-      <c r="L73" s="157"/>
-      <c r="M73" s="157"/>
-      <c r="N73" s="157"/>
-      <c r="O73" s="157"/>
-      <c r="P73" s="157"/>
-      <c r="Q73" s="157"/>
-      <c r="R73" s="157"/>
+      <c r="A73" s="161" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="161"/>
+      <c r="C73" s="161"/>
+      <c r="D73" s="161"/>
+      <c r="E73" s="161"/>
+      <c r="F73" s="161"/>
+      <c r="G73" s="161"/>
+      <c r="H73" s="161"/>
+      <c r="I73" s="161"/>
+      <c r="J73" s="161"/>
+      <c r="K73" s="161"/>
+      <c r="L73" s="161"/>
+      <c r="M73" s="161"/>
+      <c r="N73" s="161"/>
+      <c r="O73" s="161"/>
+      <c r="P73" s="161"/>
+      <c r="Q73" s="161"/>
+      <c r="R73" s="161"/>
     </row>
     <row r="74" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="158" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" s="158"/>
-      <c r="C74" s="158"/>
-      <c r="D74" s="158"/>
-      <c r="E74" s="158"/>
-      <c r="F74" s="158"/>
-      <c r="G74" s="158"/>
-      <c r="H74" s="158"/>
-      <c r="I74" s="158"/>
-      <c r="J74" s="158"/>
-      <c r="K74" s="158"/>
-      <c r="L74" s="158"/>
-      <c r="M74" s="158"/>
-      <c r="N74" s="158"/>
-      <c r="O74" s="158"/>
-      <c r="P74" s="158"/>
-      <c r="Q74" s="158"/>
-      <c r="R74" s="158"/>
+      <c r="A74" s="270" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="270"/>
+      <c r="C74" s="270"/>
+      <c r="D74" s="270"/>
+      <c r="E74" s="270"/>
+      <c r="F74" s="270"/>
+      <c r="G74" s="270"/>
+      <c r="H74" s="270"/>
+      <c r="I74" s="270"/>
+      <c r="J74" s="270"/>
+      <c r="K74" s="270"/>
+      <c r="L74" s="270"/>
+      <c r="M74" s="270"/>
+      <c r="N74" s="270"/>
+      <c r="O74" s="270"/>
+      <c r="P74" s="270"/>
+      <c r="Q74" s="270"/>
+      <c r="R74" s="270"/>
     </row>
     <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="157" t="s">
+      <c r="A75" s="161" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="161"/>
+      <c r="C75" s="161"/>
+      <c r="D75" s="161"/>
+      <c r="E75" s="161"/>
+      <c r="F75" s="161"/>
+      <c r="G75" s="161"/>
+      <c r="H75" s="161"/>
+      <c r="I75" s="161"/>
+      <c r="J75" s="161"/>
+      <c r="K75" s="161"/>
+      <c r="L75" s="161"/>
+      <c r="M75" s="161"/>
+      <c r="N75" s="161"/>
+      <c r="O75" s="161"/>
+      <c r="P75" s="161"/>
+      <c r="Q75" s="161"/>
+      <c r="R75" s="161"/>
+    </row>
+    <row r="76" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="161" t="s">
         <v>112</v>
       </c>
-      <c r="B75" s="157"/>
-      <c r="C75" s="157"/>
-      <c r="D75" s="157"/>
-      <c r="E75" s="157"/>
-      <c r="F75" s="157"/>
-      <c r="G75" s="157"/>
-      <c r="H75" s="157"/>
-      <c r="I75" s="157"/>
-      <c r="J75" s="157"/>
-      <c r="K75" s="157"/>
-      <c r="L75" s="157"/>
-      <c r="M75" s="157"/>
-      <c r="N75" s="157"/>
-      <c r="O75" s="157"/>
-      <c r="P75" s="157"/>
-      <c r="Q75" s="157"/>
-      <c r="R75" s="157"/>
-    </row>
-    <row r="76" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="157" t="s">
+      <c r="B76" s="161"/>
+      <c r="C76" s="161"/>
+      <c r="D76" s="161"/>
+      <c r="E76" s="161"/>
+      <c r="F76" s="161"/>
+      <c r="G76" s="161"/>
+      <c r="H76" s="161"/>
+      <c r="I76" s="161"/>
+      <c r="J76" s="161"/>
+      <c r="K76" s="161"/>
+      <c r="L76" s="161"/>
+      <c r="M76" s="161"/>
+      <c r="N76" s="161"/>
+      <c r="O76" s="161"/>
+      <c r="P76" s="161"/>
+      <c r="Q76" s="161"/>
+      <c r="R76" s="161"/>
+    </row>
+    <row r="77" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="161" t="s">
         <v>113</v>
       </c>
-      <c r="B76" s="157"/>
-      <c r="C76" s="157"/>
-      <c r="D76" s="157"/>
-      <c r="E76" s="157"/>
-      <c r="F76" s="157"/>
-      <c r="G76" s="157"/>
-      <c r="H76" s="157"/>
-      <c r="I76" s="157"/>
-      <c r="J76" s="157"/>
-      <c r="K76" s="157"/>
-      <c r="L76" s="157"/>
-      <c r="M76" s="157"/>
-      <c r="N76" s="157"/>
-      <c r="O76" s="157"/>
-      <c r="P76" s="157"/>
-      <c r="Q76" s="157"/>
-      <c r="R76" s="157"/>
-    </row>
-    <row r="77" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="157" t="s">
-        <v>114</v>
-      </c>
-      <c r="B77" s="157"/>
-      <c r="C77" s="157"/>
-      <c r="D77" s="157"/>
-      <c r="E77" s="157"/>
-      <c r="F77" s="157"/>
-      <c r="G77" s="157"/>
-      <c r="H77" s="157"/>
-      <c r="I77" s="157"/>
-      <c r="J77" s="157"/>
-      <c r="K77" s="157"/>
-      <c r="L77" s="157"/>
-      <c r="M77" s="157"/>
-      <c r="N77" s="157"/>
-      <c r="O77" s="157"/>
-      <c r="P77" s="157"/>
-      <c r="Q77" s="157"/>
-      <c r="R77" s="157"/>
+      <c r="B77" s="161"/>
+      <c r="C77" s="161"/>
+      <c r="D77" s="161"/>
+      <c r="E77" s="161"/>
+      <c r="F77" s="161"/>
+      <c r="G77" s="161"/>
+      <c r="H77" s="161"/>
+      <c r="I77" s="161"/>
+      <c r="J77" s="161"/>
+      <c r="K77" s="161"/>
+      <c r="L77" s="161"/>
+      <c r="M77" s="161"/>
+      <c r="N77" s="161"/>
+      <c r="O77" s="161"/>
+      <c r="P77" s="161"/>
+      <c r="Q77" s="161"/>
+      <c r="R77" s="161"/>
     </row>
     <row r="78" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="157" t="s">
-        <v>146</v>
-      </c>
-      <c r="B78" s="157"/>
-      <c r="C78" s="157"/>
-      <c r="D78" s="157"/>
-      <c r="E78" s="157"/>
-      <c r="F78" s="157"/>
-      <c r="G78" s="157"/>
-      <c r="H78" s="157"/>
-      <c r="I78" s="157"/>
-      <c r="J78" s="157"/>
-      <c r="K78" s="157"/>
-      <c r="L78" s="157"/>
-      <c r="M78" s="157"/>
-      <c r="N78" s="157"/>
-      <c r="O78" s="157"/>
-      <c r="P78" s="157"/>
-      <c r="Q78" s="157"/>
-      <c r="R78" s="157"/>
+      <c r="A78" s="161" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78" s="161"/>
+      <c r="C78" s="161"/>
+      <c r="D78" s="161"/>
+      <c r="E78" s="161"/>
+      <c r="F78" s="161"/>
+      <c r="G78" s="161"/>
+      <c r="H78" s="161"/>
+      <c r="I78" s="161"/>
+      <c r="J78" s="161"/>
+      <c r="K78" s="161"/>
+      <c r="L78" s="161"/>
+      <c r="M78" s="161"/>
+      <c r="N78" s="161"/>
+      <c r="O78" s="161"/>
+      <c r="P78" s="161"/>
+      <c r="Q78" s="161"/>
+      <c r="R78" s="161"/>
     </row>
     <row r="79" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="58"/>
@@ -5211,107 +5206,107 @@
       <c r="R79" s="58"/>
     </row>
     <row r="80" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="260" t="s">
+      <c r="A80" s="216" t="s">
         <v>44</v>
       </c>
-      <c r="B80" s="231"/>
-      <c r="C80" s="231"/>
-      <c r="D80" s="232"/>
-      <c r="E80" s="230" t="s">
-        <v>92</v>
-      </c>
-      <c r="F80" s="231"/>
-      <c r="G80" s="231"/>
-      <c r="H80" s="231"/>
-      <c r="I80" s="232"/>
-      <c r="J80" s="266" t="s">
-        <v>60</v>
-      </c>
-      <c r="K80" s="267"/>
-      <c r="L80" s="267"/>
-      <c r="M80" s="267"/>
-      <c r="N80" s="267"/>
-      <c r="O80" s="268"/>
-      <c r="P80" s="227" t="s">
+      <c r="B80" s="187"/>
+      <c r="C80" s="187"/>
+      <c r="D80" s="188"/>
+      <c r="E80" s="186" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" s="187"/>
+      <c r="G80" s="187"/>
+      <c r="H80" s="187"/>
+      <c r="I80" s="188"/>
+      <c r="J80" s="158" t="s">
+        <v>59</v>
+      </c>
+      <c r="K80" s="159"/>
+      <c r="L80" s="159"/>
+      <c r="M80" s="159"/>
+      <c r="N80" s="159"/>
+      <c r="O80" s="160"/>
+      <c r="P80" s="183" t="s">
         <v>1</v>
       </c>
       <c r="R80" s="12"/>
     </row>
     <row r="81" spans="1:19" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="261"/>
-      <c r="B81" s="262"/>
-      <c r="C81" s="262"/>
-      <c r="D81" s="263"/>
-      <c r="E81" s="233"/>
-      <c r="F81" s="234"/>
-      <c r="G81" s="234"/>
-      <c r="H81" s="234"/>
-      <c r="I81" s="235"/>
-      <c r="J81" s="246" t="s">
-        <v>65</v>
-      </c>
-      <c r="K81" s="246" t="s">
+      <c r="A81" s="217"/>
+      <c r="B81" s="218"/>
+      <c r="C81" s="218"/>
+      <c r="D81" s="219"/>
+      <c r="E81" s="189"/>
+      <c r="F81" s="190"/>
+      <c r="G81" s="190"/>
+      <c r="H81" s="190"/>
+      <c r="I81" s="191"/>
+      <c r="J81" s="202" t="s">
+        <v>64</v>
+      </c>
+      <c r="K81" s="202" t="s">
         <v>47</v>
       </c>
-      <c r="L81" s="246" t="s">
+      <c r="L81" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="M81" s="246" t="s">
+      <c r="M81" s="202" t="s">
         <v>48</v>
       </c>
-      <c r="N81" s="264" t="s">
-        <v>71</v>
-      </c>
-      <c r="O81" s="265"/>
-      <c r="P81" s="228"/>
+      <c r="N81" s="220" t="s">
+        <v>70</v>
+      </c>
+      <c r="O81" s="221"/>
+      <c r="P81" s="184"/>
       <c r="R81" s="12"/>
     </row>
     <row r="82" spans="1:19" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="252" t="s">
+      <c r="A82" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="B82" s="240"/>
-      <c r="C82" s="239" t="s">
+      <c r="B82" s="196"/>
+      <c r="C82" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="D82" s="240"/>
-      <c r="E82" s="236"/>
-      <c r="F82" s="237"/>
-      <c r="G82" s="237"/>
-      <c r="H82" s="237"/>
-      <c r="I82" s="238"/>
-      <c r="J82" s="247"/>
-      <c r="K82" s="247"/>
-      <c r="L82" s="247"/>
-      <c r="M82" s="247"/>
+      <c r="D82" s="196"/>
+      <c r="E82" s="192"/>
+      <c r="F82" s="193"/>
+      <c r="G82" s="193"/>
+      <c r="H82" s="193"/>
+      <c r="I82" s="194"/>
+      <c r="J82" s="203"/>
+      <c r="K82" s="203"/>
+      <c r="L82" s="203"/>
+      <c r="M82" s="203"/>
       <c r="N82" s="134" t="s">
+        <v>118</v>
+      </c>
+      <c r="O82" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="O82" s="134" t="s">
-        <v>120</v>
-      </c>
-      <c r="P82" s="229"/>
+      <c r="P82" s="185"/>
       <c r="R82" s="12"/>
     </row>
     <row r="83" spans="1:19" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="259">
+      <c r="A83" s="215">
         <v>0</v>
       </c>
-      <c r="B83" s="241"/>
-      <c r="C83" s="241">
+      <c r="B83" s="197"/>
+      <c r="C83" s="197">
         <f>A41</f>
         <v>80</v>
       </c>
-      <c r="D83" s="241"/>
-      <c r="E83" s="249" t="s">
-        <v>118</v>
-      </c>
-      <c r="F83" s="250"/>
-      <c r="G83" s="250"/>
-      <c r="H83" s="250"/>
-      <c r="I83" s="251"/>
+      <c r="D83" s="197"/>
+      <c r="E83" s="205" t="s">
+        <v>117</v>
+      </c>
+      <c r="F83" s="206"/>
+      <c r="G83" s="206"/>
+      <c r="H83" s="206"/>
+      <c r="I83" s="207"/>
       <c r="J83" s="74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K83" s="68">
         <v>45</v>
@@ -5320,7 +5315,7 @@
         <v>12</v>
       </c>
       <c r="M83" s="68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N83" s="135">
         <v>40</v>
@@ -5334,33 +5329,33 @@
       <c r="R83" s="12"/>
     </row>
     <row r="84" spans="1:19" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="248">
+      <c r="A84" s="204">
         <f>C83</f>
         <v>80</v>
       </c>
-      <c r="B84" s="242"/>
-      <c r="C84" s="242">
+      <c r="B84" s="198"/>
+      <c r="C84" s="198">
         <v>1203.5899999999999</v>
       </c>
-      <c r="D84" s="242"/>
-      <c r="E84" s="256" t="s">
-        <v>116</v>
-      </c>
-      <c r="F84" s="257"/>
-      <c r="G84" s="257"/>
-      <c r="H84" s="257"/>
-      <c r="I84" s="258"/>
+      <c r="D84" s="198"/>
+      <c r="E84" s="212" t="s">
+        <v>115</v>
+      </c>
+      <c r="F84" s="213"/>
+      <c r="G84" s="213"/>
+      <c r="H84" s="213"/>
+      <c r="I84" s="214"/>
       <c r="J84" s="75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K84" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L84" s="76">
         <v>15</v>
       </c>
       <c r="M84" s="75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N84" s="66">
         <v>40</v>
@@ -5374,24 +5369,24 @@
       <c r="R84" s="12"/>
     </row>
     <row r="85" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="245">
+      <c r="A85" s="201">
         <f>C84</f>
         <v>1203.5899999999999</v>
       </c>
-      <c r="B85" s="244"/>
-      <c r="C85" s="243">
+      <c r="B85" s="200"/>
+      <c r="C85" s="199">
         <v>2840.93</v>
       </c>
-      <c r="D85" s="244"/>
-      <c r="E85" s="253" t="s">
-        <v>136</v>
-      </c>
-      <c r="F85" s="254"/>
-      <c r="G85" s="254"/>
-      <c r="H85" s="254"/>
-      <c r="I85" s="255"/>
+      <c r="D85" s="200"/>
+      <c r="E85" s="209" t="s">
+        <v>133</v>
+      </c>
+      <c r="F85" s="210"/>
+      <c r="G85" s="210"/>
+      <c r="H85" s="210"/>
+      <c r="I85" s="211"/>
       <c r="J85" s="100" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K85" s="66">
         <v>45</v>
@@ -5414,34 +5409,34 @@
       <c r="R85" s="12"/>
     </row>
     <row r="86" spans="1:19" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="245">
+      <c r="A86" s="201">
         <f>C85</f>
         <v>2840.93</v>
       </c>
-      <c r="B86" s="244"/>
-      <c r="C86" s="243" t="e">
+      <c r="B86" s="200"/>
+      <c r="C86" s="199" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D86" s="244"/>
-      <c r="E86" s="253" t="s">
-        <v>98</v>
-      </c>
-      <c r="F86" s="254"/>
-      <c r="G86" s="254"/>
-      <c r="H86" s="254"/>
-      <c r="I86" s="255"/>
+      <c r="D86" s="200"/>
+      <c r="E86" s="209" t="s">
+        <v>97</v>
+      </c>
+      <c r="F86" s="210"/>
+      <c r="G86" s="210"/>
+      <c r="H86" s="210"/>
+      <c r="I86" s="211"/>
       <c r="J86" s="99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K86" s="89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L86" s="90">
         <v>8</v>
       </c>
       <c r="M86" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N86" s="89">
         <v>40</v>
@@ -5455,44 +5450,44 @@
       <c r="R86" s="12"/>
     </row>
     <row r="87" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="224"/>
-      <c r="B87" s="225"/>
-      <c r="C87" s="225"/>
-      <c r="D87" s="225"/>
-      <c r="E87" s="225"/>
-      <c r="F87" s="225"/>
-      <c r="G87" s="225"/>
-      <c r="H87" s="225"/>
-      <c r="I87" s="225"/>
-      <c r="J87" s="225"/>
-      <c r="K87" s="225"/>
-      <c r="L87" s="225"/>
-      <c r="M87" s="225"/>
-      <c r="N87" s="225"/>
-      <c r="O87" s="225"/>
-      <c r="P87" s="226"/>
+      <c r="A87" s="180"/>
+      <c r="B87" s="181"/>
+      <c r="C87" s="181"/>
+      <c r="D87" s="181"/>
+      <c r="E87" s="181"/>
+      <c r="F87" s="181"/>
+      <c r="G87" s="181"/>
+      <c r="H87" s="181"/>
+      <c r="I87" s="181"/>
+      <c r="J87" s="181"/>
+      <c r="K87" s="181"/>
+      <c r="L87" s="181"/>
+      <c r="M87" s="181"/>
+      <c r="N87" s="181"/>
+      <c r="O87" s="181"/>
+      <c r="P87" s="182"/>
       <c r="Q87" s="27"/>
       <c r="R87" s="27"/>
     </row>
     <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="221" t="s">
-        <v>77</v>
-      </c>
-      <c r="B88" s="222"/>
-      <c r="C88" s="222"/>
-      <c r="D88" s="222"/>
-      <c r="E88" s="222"/>
-      <c r="F88" s="222"/>
-      <c r="G88" s="222"/>
-      <c r="H88" s="222"/>
-      <c r="I88" s="222"/>
-      <c r="J88" s="222"/>
-      <c r="K88" s="222"/>
-      <c r="L88" s="222"/>
-      <c r="M88" s="222"/>
-      <c r="N88" s="222"/>
-      <c r="O88" s="222"/>
-      <c r="P88" s="223"/>
+      <c r="A88" s="177" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" s="178"/>
+      <c r="C88" s="178"/>
+      <c r="D88" s="178"/>
+      <c r="E88" s="178"/>
+      <c r="F88" s="178"/>
+      <c r="G88" s="178"/>
+      <c r="H88" s="178"/>
+      <c r="I88" s="178"/>
+      <c r="J88" s="178"/>
+      <c r="K88" s="178"/>
+      <c r="L88" s="178"/>
+      <c r="M88" s="178"/>
+      <c r="N88" s="178"/>
+      <c r="O88" s="178"/>
+      <c r="P88" s="179"/>
       <c r="Q88" s="59"/>
       <c r="R88" s="59"/>
     </row>
@@ -5539,10 +5534,10 @@
     </row>
     <row r="91" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B91" s="51" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C91" s="51"/>
       <c r="D91" s="51"/>
@@ -6150,6 +6145,103 @@
     </row>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="A78:R78"/>
+    <mergeCell ref="A74:R74"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="K45:P45"/>
+    <mergeCell ref="K46:P46"/>
+    <mergeCell ref="K58:P58"/>
+    <mergeCell ref="K54:P54"/>
+    <mergeCell ref="K55:P55"/>
+    <mergeCell ref="K56:P56"/>
+    <mergeCell ref="K53:P53"/>
+    <mergeCell ref="K51:P51"/>
+    <mergeCell ref="K57:P57"/>
+    <mergeCell ref="K59:P59"/>
+    <mergeCell ref="K60:P60"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="K47:P47"/>
+    <mergeCell ref="K48:P48"/>
+    <mergeCell ref="K49:P49"/>
+    <mergeCell ref="K50:P50"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="K42:P42"/>
+    <mergeCell ref="K43:P43"/>
+    <mergeCell ref="K52:P52"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="K41:P41"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="K39:P39"/>
+    <mergeCell ref="K40:P40"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="E86:I86"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="K44:P44"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="N15:P16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="A62:P62"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="A75:R75"/>
+    <mergeCell ref="A77:R77"/>
+    <mergeCell ref="A88:P88"/>
+    <mergeCell ref="A87:P87"/>
+    <mergeCell ref="P80:P82"/>
+    <mergeCell ref="E80:I82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="E83:I83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:I85"/>
+    <mergeCell ref="E84:I84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="L81:L82"/>
     <mergeCell ref="J65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:P65"/>
@@ -6174,103 +6266,6 @@
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="A68:B68"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="A75:R75"/>
-    <mergeCell ref="A77:R77"/>
-    <mergeCell ref="A88:P88"/>
-    <mergeCell ref="A87:P87"/>
-    <mergeCell ref="P80:P82"/>
-    <mergeCell ref="E80:I82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="E83:I83"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:I85"/>
-    <mergeCell ref="E84:I84"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A80:D81"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="E86:I86"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="K44:P44"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="N15:P16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="A62:P62"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="K42:P42"/>
-    <mergeCell ref="K43:P43"/>
-    <mergeCell ref="K52:P52"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="K41:P41"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="A38:M38"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="K39:P39"/>
-    <mergeCell ref="K40:P40"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="A78:R78"/>
-    <mergeCell ref="A74:R74"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="K45:P45"/>
-    <mergeCell ref="K46:P46"/>
-    <mergeCell ref="K58:P58"/>
-    <mergeCell ref="K54:P54"/>
-    <mergeCell ref="K55:P55"/>
-    <mergeCell ref="K56:P56"/>
-    <mergeCell ref="K53:P53"/>
-    <mergeCell ref="K51:P51"/>
-    <mergeCell ref="K57:P57"/>
-    <mergeCell ref="K59:P59"/>
-    <mergeCell ref="K60:P60"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="K47:P47"/>
-    <mergeCell ref="K48:P48"/>
-    <mergeCell ref="K49:P49"/>
-    <mergeCell ref="K50:P50"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:I65"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
